--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +525,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H2">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I2">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J2">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.43607461625551</v>
+        <v>0.2652796666666666</v>
       </c>
       <c r="N2">
-        <v>6.43607461625551</v>
+        <v>0.795839</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03859763870461846</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03859763870461847</v>
       </c>
       <c r="Q2">
-        <v>29.36796141450897</v>
+        <v>0.01569562518455555</v>
       </c>
       <c r="R2">
-        <v>29.36796141450897</v>
+        <v>0.141260626661</v>
       </c>
       <c r="S2">
-        <v>0.5145719422429775</v>
+        <v>0.0002254329017941917</v>
       </c>
       <c r="T2">
-        <v>0.5145719422429775</v>
+        <v>0.0002254329017941917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.05916633333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.177499</v>
+      </c>
+      <c r="I3">
+        <v>0.005840587905374044</v>
+      </c>
+      <c r="J3">
+        <v>0.005840587905374044</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.034619</v>
+      </c>
+      <c r="N3">
+        <v>0.103857</v>
+      </c>
+      <c r="O3">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="P3">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="Q3">
+        <v>0.002048279293666667</v>
+      </c>
+      <c r="R3">
+        <v>0.018434513643</v>
+      </c>
+      <c r="S3">
+        <v>2.941899665841882E-05</v>
+      </c>
+      <c r="T3">
+        <v>2.941899665841882E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.05916633333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.177499</v>
+      </c>
+      <c r="I4">
+        <v>0.005840587905374044</v>
+      </c>
+      <c r="J4">
+        <v>0.005840587905374044</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.573052000000001</v>
+      </c>
+      <c r="N4">
+        <v>19.719156</v>
+      </c>
+      <c r="O4">
+        <v>0.9563653689351861</v>
+      </c>
+      <c r="P4">
+        <v>0.9563653689351862</v>
+      </c>
+      <c r="Q4">
+        <v>0.3889033856493334</v>
+      </c>
+      <c r="R4">
+        <v>3.500130470844</v>
+      </c>
+      <c r="S4">
+        <v>0.005585736006921434</v>
+      </c>
+      <c r="T4">
+        <v>0.005585736006921434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.748364666666667</v>
+      </c>
+      <c r="H5">
+        <v>17.245094</v>
+      </c>
+      <c r="I5">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="J5">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2652796666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.795839</v>
+      </c>
+      <c r="O5">
+        <v>0.03859763870461846</v>
+      </c>
+      <c r="P5">
+        <v>0.03859763870461847</v>
+      </c>
+      <c r="Q5">
+        <v>1.524924262651778</v>
+      </c>
+      <c r="R5">
+        <v>13.724318363866</v>
+      </c>
+      <c r="S5">
+        <v>0.02190216047489623</v>
+      </c>
+      <c r="T5">
+        <v>0.02190216047489623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.748364666666667</v>
+      </c>
+      <c r="H6">
+        <v>17.245094</v>
+      </c>
+      <c r="I6">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="J6">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.034619</v>
+      </c>
+      <c r="N6">
+        <v>0.103857</v>
+      </c>
+      <c r="O6">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="P6">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="Q6">
+        <v>0.1990026363953334</v>
+      </c>
+      <c r="R6">
+        <v>1.791023727558</v>
+      </c>
+      <c r="S6">
+        <v>0.002858232230942814</v>
+      </c>
+      <c r="T6">
+        <v>0.002858232230942814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.748364666666667</v>
+      </c>
+      <c r="H7">
+        <v>17.245094</v>
+      </c>
+      <c r="I7">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="J7">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.573052000000001</v>
+      </c>
+      <c r="N7">
+        <v>19.719156</v>
+      </c>
+      <c r="O7">
+        <v>0.9563653689351861</v>
+      </c>
+      <c r="P7">
+        <v>0.9563653689351862</v>
+      </c>
+      <c r="Q7">
+        <v>37.78429986896268</v>
+      </c>
+      <c r="R7">
+        <v>340.0586988206641</v>
+      </c>
+      <c r="S7">
+        <v>0.542687803866753</v>
+      </c>
+      <c r="T7">
+        <v>0.5426878038667531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4.30458713532694</v>
-      </c>
-      <c r="H3">
-        <v>4.30458713532694</v>
-      </c>
-      <c r="I3">
-        <v>0.4854280577570226</v>
-      </c>
-      <c r="J3">
-        <v>0.4854280577570226</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>6.43607461625551</v>
-      </c>
-      <c r="N3">
-        <v>6.43607461625551</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>27.70464399513774</v>
-      </c>
-      <c r="R3">
-        <v>27.70464399513774</v>
-      </c>
-      <c r="S3">
-        <v>0.4854280577570226</v>
-      </c>
-      <c r="T3">
-        <v>0.4854280577570226</v>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H8">
+        <v>12.968012</v>
+      </c>
+      <c r="I8">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J8">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2652796666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.795839</v>
+      </c>
+      <c r="O8">
+        <v>0.03859763870461846</v>
+      </c>
+      <c r="P8">
+        <v>0.03859763870461847</v>
+      </c>
+      <c r="Q8">
+        <v>1.146716633563111</v>
+      </c>
+      <c r="R8">
+        <v>10.320449702068</v>
+      </c>
+      <c r="S8">
+        <v>0.01647004532792804</v>
+      </c>
+      <c r="T8">
+        <v>0.01647004532792805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H9">
+        <v>12.968012</v>
+      </c>
+      <c r="I9">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J9">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.034619</v>
+      </c>
+      <c r="N9">
+        <v>0.103857</v>
+      </c>
+      <c r="O9">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="P9">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="Q9">
+        <v>0.1496465358093334</v>
+      </c>
+      <c r="R9">
+        <v>1.346818822284</v>
+      </c>
+      <c r="S9">
+        <v>0.002149341132594185</v>
+      </c>
+      <c r="T9">
+        <v>0.002149341132594185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H10">
+        <v>12.968012</v>
+      </c>
+      <c r="I10">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J10">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.573052000000001</v>
+      </c>
+      <c r="N10">
+        <v>19.719156</v>
+      </c>
+      <c r="O10">
+        <v>0.9563653689351861</v>
+      </c>
+      <c r="P10">
+        <v>0.9563653689351862</v>
+      </c>
+      <c r="Q10">
+        <v>28.41313907087467</v>
+      </c>
+      <c r="R10">
+        <v>255.718251637872</v>
+      </c>
+      <c r="S10">
+        <v>0.4080918290615116</v>
+      </c>
+      <c r="T10">
+        <v>0.4080918290615116</v>
       </c>
     </row>
   </sheetData>
